--- a/Hourly_Uptime.xlsx
+++ b/Hourly_Uptime.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
-    <t>Communications Uptime from 2023-02-01 to 2023-02-12</t>
+    <t>Communications Uptime from 2023-03-01 to 2023-03-12</t>
   </si>
   <si>
     <t>Time</t>
@@ -25,796 +25,796 @@
     <t>Uptime (%)</t>
   </si>
   <si>
-    <t>2023-02-01 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-02 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-03 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-04 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-05 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-06 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-07 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-08 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-09 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-10 23:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 00:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 01:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 02:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 03:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 04:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 05:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 06:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 07:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 08:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 09:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 10:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 11:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 12:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 13:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 14:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 15:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 16:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 17:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 18:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 19:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 20:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 21:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-02-11 23:00:00+00:00</t>
+    <t>2023-03-01 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-01 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-02 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-03 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-04 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-05 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-06 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-07 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-08 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-09 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-10 23:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 00:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 01:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 02:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 03:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 04:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 05:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 06:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 07:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 08:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 09:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 10:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 11:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 12:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 13:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 14:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 15:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 16:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 17:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 18:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 19:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 20:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 21:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2023-03-11 23:00:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1522,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>100</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>8.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>91.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8.33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>91.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>66.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3218,7 +3218,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>100</v>
+        <v>33.33000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3226,7 +3226,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3234,7 +3234,7 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3242,7 +3242,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3250,7 +3250,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>100</v>
+        <v>33.33000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:2">
